--- a/data/testdata400.xlsx
+++ b/data/testdata400.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D402"/>
+  <dimension ref="A1:D403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7661,6 +7661,24 @@
         <v>23</v>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Uus toode</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Kategoor</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>21</v>
+      </c>
+      <c r="D403" t="n">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/testdata400.xlsx
+++ b/data/testdata400.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D403"/>
+  <dimension ref="A1:D404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7679,6 +7679,24 @@
         <v>42</v>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Item 401</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>69</v>
+      </c>
+      <c r="D404" t="n">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/testdata400.xlsx
+++ b/data/testdata400.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D404"/>
+  <dimension ref="A1:D403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,205 +464,205 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Item 2</t>
+          <t>Item 10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>408.5</v>
+        <v>123.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Item 3</t>
+          <t>Item 100</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n">
-        <v>227.23</v>
+        <v>335.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Item 4</t>
+          <t>Item 101</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>195.65</v>
+        <v>248.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Item 5</t>
+          <t>Item 102</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>84</v>
       </c>
       <c r="D6" t="n">
-        <v>176.72</v>
+        <v>390.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Item 6</t>
+          <t>Item 103</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>387.22</v>
+        <v>47.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Item 7</t>
+          <t>Item 104</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D8" t="n">
-        <v>457.71</v>
+        <v>91.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Item 9</t>
+          <t>Item 105</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" t="n">
-        <v>241</v>
+        <v>85.20999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Item 10</t>
+          <t>Item 106</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>123.62</v>
+        <v>234.78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Item 11</t>
+          <t>Item 107</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D11" t="n">
-        <v>278.29</v>
+        <v>129.96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Item 12</t>
+          <t>Item 108</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>152.57</v>
+        <v>62.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Item 13</t>
+          <t>Item 109</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D13" t="n">
-        <v>251.47</v>
+        <v>415.54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Item 14</t>
+          <t>Item 11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -671,70 +671,70 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D14" t="n">
-        <v>441.93</v>
+        <v>278.29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Item 15</t>
+          <t>Item 110</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
-        <v>444.54</v>
+        <v>203.47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Item 16</t>
+          <t>Item 111</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D16" t="n">
-        <v>273.29</v>
+        <v>85.81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Item 17</t>
+          <t>Item 112</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>485.13</v>
+        <v>446.17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Item 18</t>
+          <t>Item 113</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -743,250 +743,250 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D18" t="n">
-        <v>130.65</v>
+        <v>121.69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Item 19</t>
+          <t>Item 114</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D19" t="n">
-        <v>381.52</v>
+        <v>64.45999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Item 20</t>
+          <t>Item 115</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D20" t="n">
-        <v>167.5</v>
+        <v>328.28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Item 21</t>
+          <t>Item 116</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D21" t="n">
-        <v>348.07</v>
+        <v>81.45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Item 22</t>
+          <t>Item 117</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>400.41</v>
+        <v>234.66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Item 23</t>
+          <t>Item 118</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D23" t="n">
-        <v>423.93</v>
+        <v>321.75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Item 24</t>
+          <t>Item 119</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
-        <v>483.73</v>
+        <v>231.49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Item 25</t>
+          <t>Item 12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D25" t="n">
-        <v>422.78</v>
+        <v>152.57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Item 26</t>
+          <t>Item 120</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>191</v>
+        <v>245.28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Item 27</t>
+          <t>Item 121</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D27" t="n">
-        <v>307.52</v>
+        <v>73.33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Item 28</t>
+          <t>Item 122</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D28" t="n">
-        <v>57.57</v>
+        <v>329.36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Item 29</t>
+          <t>Item 123</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" t="n">
-        <v>377.75</v>
+        <v>51.72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Item 30</t>
+          <t>Item 124</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
-        <v>6.45</v>
+        <v>45.81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Item 31</t>
+          <t>Item 125</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D31" t="n">
-        <v>263.37</v>
+        <v>223.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Item 32</t>
+          <t>Item 126</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -995,34 +995,34 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D32" t="n">
-        <v>396</v>
+        <v>75.53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Item 33</t>
+          <t>Item 127</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>298.91</v>
+        <v>328.13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Item 34</t>
+          <t>Item 128</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1031,106 +1031,106 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D34" t="n">
-        <v>484.29</v>
+        <v>139.58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Item 35</t>
+          <t>Item 129</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>414.41</v>
+        <v>200.02</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Item 36</t>
+          <t>Item 13</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>470.25</v>
+        <v>251.47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Item 37</t>
+          <t>Item 130</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>497.38</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Item 38</t>
+          <t>Item 131</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D38" t="n">
-        <v>458.24</v>
+        <v>270.07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Item 39</t>
+          <t>Item 132</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D39" t="n">
-        <v>83.18000000000001</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Item 40</t>
+          <t>Item 133</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1139,214 +1139,214 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D40" t="n">
-        <v>26.93</v>
+        <v>396.52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Item 41</t>
+          <t>Item 134</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D41" t="n">
-        <v>358.2</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Item 42</t>
+          <t>Item 135</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D42" t="n">
-        <v>488.73</v>
+        <v>53.22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Item 43</t>
+          <t>Item 136</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D43" t="n">
-        <v>222.48</v>
+        <v>258.66</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Item 44</t>
+          <t>Item 137</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>330.86</v>
+        <v>158.46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Item 45</t>
+          <t>Item 138</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D45" t="n">
-        <v>306.41</v>
+        <v>384.21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Item 46</t>
+          <t>Item 139</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>195.32</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Item 47</t>
+          <t>Item 14</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D47" t="n">
-        <v>213.79</v>
+        <v>441.93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Item 48</t>
+          <t>Item 140</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D48" t="n">
-        <v>133.71</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Item 49</t>
+          <t>Item 141</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="D49" t="n">
-        <v>382.9</v>
+        <v>141.53</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Item 50</t>
+          <t>Item 142</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D50" t="n">
-        <v>431.66</v>
+        <v>498.18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Item 51</t>
+          <t>Item 143</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D51" t="n">
-        <v>14.76</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Item 52</t>
+          <t>Item 144</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1355,232 +1355,232 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>369.3</v>
+        <v>466.91</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Item 53</t>
+          <t>Item 145</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D53" t="n">
-        <v>497.85</v>
+        <v>179.86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Item 54</t>
+          <t>Item 146</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>417.72</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Item 55</t>
+          <t>Item 147</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" t="n">
-        <v>326.35</v>
+        <v>466.25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Item 56</t>
+          <t>Item 148</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
-        <v>493.32</v>
+        <v>257.69</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Item 57</t>
+          <t>Item 149</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D57" t="n">
-        <v>357.88</v>
+        <v>433.51</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Item 58</t>
+          <t>Item 15</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D58" t="n">
-        <v>296.12</v>
+        <v>444.54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Item 59</t>
+          <t>Item 150</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D59" t="n">
-        <v>88.36</v>
+        <v>198.41</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Item 60</t>
+          <t>Item 151</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>17.28</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Item 61</t>
+          <t>Item 152</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="D61" t="n">
-        <v>355.92</v>
+        <v>344.93</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Item 62</t>
+          <t>Item 153</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="D62" t="n">
-        <v>251.01</v>
+        <v>95.18000000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Item 63</t>
+          <t>Item 154</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D63" t="n">
-        <v>346.7</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Item 64</t>
+          <t>Item 155</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D64" t="n">
-        <v>169.59</v>
+        <v>260.68</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Item 65</t>
+          <t>Item 156</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1589,142 +1589,142 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D65" t="n">
-        <v>62.27</v>
+        <v>276.46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Item 66</t>
+          <t>Item 157</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D66" t="n">
-        <v>408.17</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Item 67</t>
+          <t>Item 158</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D67" t="n">
-        <v>186.7</v>
+        <v>457.43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Item 68</t>
+          <t>Item 159</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D68" t="n">
-        <v>316.31</v>
+        <v>484.91</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Item 69</t>
+          <t>Item 16</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D69" t="n">
-        <v>378.5</v>
+        <v>273.29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Item 70</t>
+          <t>Item 160</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>37.71</v>
+        <v>35.08</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Item 71</t>
+          <t>Item 161</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D71" t="n">
-        <v>363.85</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Item 72</t>
+          <t>Item 162</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D72" t="n">
-        <v>497.87</v>
+        <v>266.28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Item 73</t>
+          <t>Item 163</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1733,124 +1733,124 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="D73" t="n">
-        <v>275.33</v>
+        <v>350.72</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Item 74</t>
+          <t>Item 164</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D74" t="n">
-        <v>493.54</v>
+        <v>231.1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Item 75</t>
+          <t>Item 165</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
-        <v>215.34</v>
+        <v>294.08</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Item 76</t>
+          <t>Item 166</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>74.98</v>
+        <v>140.42</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Item 77</t>
+          <t>Item 167</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D77" t="n">
-        <v>213.97</v>
+        <v>154.98</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Item 78</t>
+          <t>Item 168</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D78" t="n">
-        <v>73.45</v>
+        <v>455.79</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Item 79</t>
+          <t>Item 169</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D79" t="n">
-        <v>250.74</v>
+        <v>79.58</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Item 80</t>
+          <t>Item 17</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1859,88 +1859,88 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D80" t="n">
-        <v>41.99</v>
+        <v>485.13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Item 81</t>
+          <t>Item 170</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>338.43</v>
+        <v>16.83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Item 82</t>
+          <t>Item 171</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D82" t="n">
-        <v>249.35</v>
+        <v>265.18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Item 83</t>
+          <t>Item 172</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D83" t="n">
-        <v>404.78</v>
+        <v>280.34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Item 84</t>
+          <t>Item 173</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D84" t="n">
-        <v>282.05</v>
+        <v>379.28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Item 85</t>
+          <t>Item 174</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1949,34 +1949,34 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D85" t="n">
-        <v>172.03</v>
+        <v>134.97</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Item 86</t>
+          <t>Item 175</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D86" t="n">
-        <v>373.65</v>
+        <v>69.31999999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Item 87</t>
+          <t>Item 176</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1985,142 +1985,142 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="D87" t="n">
-        <v>393.71</v>
+        <v>315.37</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Item 88</t>
+          <t>Item 177</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D88" t="n">
-        <v>424.95</v>
+        <v>52.45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Item 89</t>
+          <t>Item 178</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D89" t="n">
-        <v>359.94</v>
+        <v>98.39</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Item 90</t>
+          <t>Item 179</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D90" t="n">
-        <v>291.19</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Item 91</t>
+          <t>Item 18</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="D91" t="n">
-        <v>473.84</v>
+        <v>130.65</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Item 92</t>
+          <t>Item 180</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D92" t="n">
-        <v>76.22</v>
+        <v>358.43</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Item 93</t>
+          <t>Item 181</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D93" t="n">
-        <v>427.69</v>
+        <v>156.18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Item 94</t>
+          <t>Item 182</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D94" t="n">
-        <v>217.03</v>
+        <v>497.96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Item 95</t>
+          <t>Item 183</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2129,88 +2129,88 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D95" t="n">
-        <v>187.74</v>
+        <v>191.37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Item 96</t>
+          <t>Item 184</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D96" t="n">
-        <v>460.46</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Item 97</t>
+          <t>Item 185</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D97" t="n">
-        <v>495.38</v>
+        <v>492.45</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Item 98</t>
+          <t>Item 186</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D98" t="n">
-        <v>432.84</v>
+        <v>391.22</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Item 99</t>
+          <t>Item 187</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D99" t="n">
-        <v>17.6</v>
+        <v>218.8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Item 100</t>
+          <t>Item 188</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2219,250 +2219,250 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D100" t="n">
-        <v>335.53</v>
+        <v>121.48</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Item 101</t>
+          <t>Item 189</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D101" t="n">
-        <v>248.03</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Item 102</t>
+          <t>Item 19</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D102" t="n">
-        <v>390.7</v>
+        <v>381.52</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Item 103</t>
+          <t>Item 190</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D103" t="n">
-        <v>47.12</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Item 104</t>
+          <t>Item 191</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D104" t="n">
-        <v>91.94</v>
+        <v>491.07</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Item 105</t>
+          <t>Item 192</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D105" t="n">
-        <v>85.20999999999999</v>
+        <v>339.65</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Item 106</t>
+          <t>Item 193</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D106" t="n">
-        <v>234.78</v>
+        <v>320.83</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Item 107</t>
+          <t>Item 194</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D107" t="n">
-        <v>129.96</v>
+        <v>484.85</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Item 108</t>
+          <t>Item 195</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D108" t="n">
-        <v>62.28</v>
+        <v>332.67</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Item 109</t>
+          <t>Item 196</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D109" t="n">
-        <v>415.54</v>
+        <v>303.08</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Item 110</t>
+          <t>Item 197</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D110" t="n">
-        <v>203.47</v>
+        <v>248.99</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Item 111</t>
+          <t>Item 198</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D111" t="n">
-        <v>85.81</v>
+        <v>422.29</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Item 112</t>
+          <t>Item 199</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D112" t="n">
-        <v>446.17</v>
+        <v>446.02</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Item 113</t>
+          <t>Item 20</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D113" t="n">
-        <v>121.69</v>
+        <v>167.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Item 114</t>
+          <t>Item 200</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2471,16 +2471,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D114" t="n">
-        <v>64.45999999999999</v>
+        <v>457.87</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Item 115</t>
+          <t>Item 201</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2489,70 +2489,70 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D115" t="n">
-        <v>328.28</v>
+        <v>60.01</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Item 116</t>
+          <t>Item 202</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D116" t="n">
-        <v>81.45</v>
+        <v>498.95</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Item 117</t>
+          <t>Item 203</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D117" t="n">
-        <v>234.66</v>
+        <v>190.17</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Item 118</t>
+          <t>Item 204</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D118" t="n">
-        <v>321.75</v>
+        <v>421.11</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Item 119</t>
+          <t>Item 205</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2561,88 +2561,88 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D119" t="n">
-        <v>231.49</v>
+        <v>118.79</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Item 120</t>
+          <t>Item 206</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D120" t="n">
-        <v>245.28</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Item 121</t>
+          <t>Item 207</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D121" t="n">
-        <v>73.33</v>
+        <v>459.95</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Item 122</t>
+          <t>Item 208</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="D122" t="n">
-        <v>329.36</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Item 123</t>
+          <t>Item 209</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="D123" t="n">
-        <v>51.72</v>
+        <v>266.93</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Item 124</t>
+          <t>Item 21</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2651,214 +2651,214 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D124" t="n">
-        <v>45.81</v>
+        <v>348.07</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Item 125</t>
+          <t>Item 210</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D125" t="n">
-        <v>223.7</v>
+        <v>251.55</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Item 126</t>
+          <t>Item 211</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D126" t="n">
-        <v>75.53</v>
+        <v>481.31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Item 127</t>
+          <t>Item 212</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D127" t="n">
-        <v>328.13</v>
+        <v>450.23</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Item 128</t>
+          <t>Item 213</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D128" t="n">
-        <v>139.58</v>
+        <v>372.95</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Item 129</t>
+          <t>Item 214</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D129" t="n">
-        <v>200.02</v>
+        <v>463.67</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Item 130</t>
+          <t>Item 215</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D130" t="n">
-        <v>61.56</v>
+        <v>187.89</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Item 131</t>
+          <t>Item 216</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D131" t="n">
-        <v>270.07</v>
+        <v>195.05</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Item 132</t>
+          <t>Item 217</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D132" t="n">
-        <v>48.8</v>
+        <v>386.34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Item 133</t>
+          <t>Item 218</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D133" t="n">
-        <v>396.52</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Item 134</t>
+          <t>Item 219</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D134" t="n">
-        <v>12.27</v>
+        <v>90.15000000000001</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Item 135</t>
+          <t>Item 22</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D135" t="n">
-        <v>53.22</v>
+        <v>400.41</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Item 136</t>
+          <t>Item 220</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2867,160 +2867,160 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D136" t="n">
-        <v>258.66</v>
+        <v>340.86</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Item 137</t>
+          <t>Item 221</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D137" t="n">
-        <v>158.46</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Item 138</t>
+          <t>Item 222</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D138" t="n">
-        <v>384.21</v>
+        <v>489.82</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Item 139</t>
+          <t>Item 223</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D139" t="n">
-        <v>24.2</v>
+        <v>307.71</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Item 140</t>
+          <t>Item 224</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D140" t="n">
-        <v>14.96</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Item 141</t>
+          <t>Item 225</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D141" t="n">
-        <v>141.53</v>
+        <v>31.47</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Item 142</t>
+          <t>Item 226</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="D142" t="n">
-        <v>498.18</v>
+        <v>403.79</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Item 143</t>
+          <t>Item 227</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D143" t="n">
-        <v>131.1</v>
+        <v>276.31</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Item 144</t>
+          <t>Item 228</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D144" t="n">
-        <v>466.91</v>
+        <v>33.45</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Item 145</t>
+          <t>Item 229</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3029,16 +3029,16 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D145" t="n">
-        <v>179.86</v>
+        <v>346.73</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Item 146</t>
+          <t>Item 23</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3047,574 +3047,574 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D146" t="n">
-        <v>131.1</v>
+        <v>423.93</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Item 147</t>
+          <t>Item 230</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D147" t="n">
-        <v>466.25</v>
+        <v>124.15</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Item 148</t>
+          <t>Item 231</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D148" t="n">
-        <v>257.69</v>
+        <v>33.29</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Item 149</t>
+          <t>Item 232</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D149" t="n">
-        <v>433.51</v>
+        <v>159.65</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Item 150</t>
+          <t>Item 233</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D150" t="n">
-        <v>198.41</v>
+        <v>166.27</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Item 151</t>
+          <t>Item 234</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D151" t="n">
-        <v>41.7</v>
+        <v>314.42</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Item 152</t>
+          <t>Item 235</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D152" t="n">
-        <v>344.93</v>
+        <v>431.3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Item 153</t>
+          <t>Item 236</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D153" t="n">
-        <v>95.18000000000001</v>
+        <v>277.5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Item 154</t>
+          <t>Item 237</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D154" t="n">
-        <v>6.31</v>
+        <v>309.07</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Item 155</t>
+          <t>Item 238</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D155" t="n">
-        <v>260.68</v>
+        <v>141.92</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Item 156</t>
+          <t>Item 239</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D156" t="n">
-        <v>276.46</v>
+        <v>132.37</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Item 157</t>
+          <t>Item 24</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D157" t="n">
-        <v>17.23</v>
+        <v>483.73</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Item 158</t>
+          <t>Item 240</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D158" t="n">
-        <v>457.43</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Item 159</t>
+          <t>Item 241</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D159" t="n">
-        <v>484.91</v>
+        <v>55.49</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Item 160</t>
+          <t>Item 242</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D160" t="n">
-        <v>35.08</v>
+        <v>123.2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Item 161</t>
+          <t>Item 243</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D161" t="n">
-        <v>311.5</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Item 162</t>
+          <t>Item 244</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D162" t="n">
-        <v>266.28</v>
+        <v>204.33</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Item 163</t>
+          <t>Item 245</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="D163" t="n">
-        <v>350.72</v>
+        <v>334.96</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Item 164</t>
+          <t>Item 246</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D164" t="n">
-        <v>231.1</v>
+        <v>393.28</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Item 165</t>
+          <t>Item 247</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D165" t="n">
-        <v>294.08</v>
+        <v>40.54</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Item 166</t>
+          <t>Item 248</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D166" t="n">
-        <v>140.42</v>
+        <v>433.26</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Item 167</t>
+          <t>Item 249</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D167" t="n">
-        <v>154.98</v>
+        <v>160.88</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Item 168</t>
+          <t>Item 25</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D168" t="n">
-        <v>455.79</v>
+        <v>422.78</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Item 169</t>
+          <t>Item 250</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>79.58</v>
+        <v>209.22</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Item 170</t>
+          <t>Item 251</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D170" t="n">
-        <v>16.83</v>
+        <v>156.68</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Item 171</t>
+          <t>Item 252</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D171" t="n">
-        <v>265.18</v>
+        <v>218.08</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Item 172</t>
+          <t>Item 253</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D172" t="n">
-        <v>280.34</v>
+        <v>416.56</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Item 173</t>
+          <t>Item 254</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D173" t="n">
-        <v>379.28</v>
+        <v>347.58</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Item 174</t>
+          <t>Item 255</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D174" t="n">
-        <v>134.97</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Item 175</t>
+          <t>Item 256</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D175" t="n">
-        <v>69.31999999999999</v>
+        <v>41.85</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Item 176</t>
+          <t>Item 257</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="D176" t="n">
-        <v>315.37</v>
+        <v>372.74</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Item 177</t>
+          <t>Item 258</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="D177" t="n">
-        <v>52.45</v>
+        <v>386.29</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Item 178</t>
+          <t>Item 259</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3623,88 +3623,88 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D178" t="n">
-        <v>98.39</v>
+        <v>457.26</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Item 179</t>
+          <t>Item 26</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D179" t="n">
-        <v>19.98</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Item 180</t>
+          <t>Item 260</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D180" t="n">
-        <v>358.43</v>
+        <v>297.88</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Item 181</t>
+          <t>Item 261</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="D181" t="n">
-        <v>156.18</v>
+        <v>367.11</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Item 182</t>
+          <t>Item 262</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D182" t="n">
-        <v>497.96</v>
+        <v>270.73</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Item 183</t>
+          <t>Item 263</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3713,250 +3713,250 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D183" t="n">
-        <v>191.37</v>
+        <v>322.81</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Item 184</t>
+          <t>Item 264</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D184" t="n">
-        <v>7.37</v>
+        <v>163.27</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Item 185</t>
+          <t>Item 265</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D185" t="n">
-        <v>492.45</v>
+        <v>90.23</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Item 186</t>
+          <t>Item 266</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D186" t="n">
-        <v>391.22</v>
+        <v>220.76</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Item 187</t>
+          <t>Item 267</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D187" t="n">
-        <v>218.8</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Item 188</t>
+          <t>Item 268</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D188" t="n">
-        <v>121.48</v>
+        <v>37.37</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Item 189</t>
+          <t>Item 269</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D189" t="n">
-        <v>15.79</v>
+        <v>240.92</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Item 190</t>
+          <t>Item 27</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D190" t="n">
-        <v>45.97</v>
+        <v>307.52</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Item 191</t>
+          <t>Item 270</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D191" t="n">
-        <v>491.07</v>
+        <v>121.28</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Item 192</t>
+          <t>Item 271</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D192" t="n">
-        <v>339.65</v>
+        <v>93.19</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Item 193</t>
+          <t>Item 272</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D193" t="n">
-        <v>320.83</v>
+        <v>217.59</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Item 194</t>
+          <t>Item 273</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D194" t="n">
-        <v>484.85</v>
+        <v>140.08</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Item 195</t>
+          <t>Item 274</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D195" t="n">
-        <v>332.67</v>
+        <v>345.08</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Item 196</t>
+          <t>Item 275</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D196" t="n">
-        <v>303.08</v>
+        <v>433.58</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Item 197</t>
+          <t>Item 276</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3965,70 +3965,70 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D197" t="n">
-        <v>248.99</v>
+        <v>211.28</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Item 198</t>
+          <t>Item 277</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D198" t="n">
-        <v>422.29</v>
+        <v>178.08</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Item 199</t>
+          <t>Item 278</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D199" t="n">
-        <v>446.02</v>
+        <v>196.98</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Item 200</t>
+          <t>Item 279</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D200" t="n">
-        <v>457.87</v>
+        <v>339.04</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Item 201</t>
+          <t>Item 28</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4037,52 +4037,52 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D201" t="n">
-        <v>60.01</v>
+        <v>57.57</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Item 202</t>
+          <t>Item 280</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D202" t="n">
-        <v>498.95</v>
+        <v>475.94</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Item 203</t>
+          <t>Item 281</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D203" t="n">
-        <v>190.17</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Item 204</t>
+          <t>Item 282</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4091,88 +4091,88 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D204" t="n">
-        <v>421.11</v>
+        <v>125.84</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Item 205</t>
+          <t>Item 283</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D205" t="n">
-        <v>118.79</v>
+        <v>176.62</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Item 206</t>
+          <t>Item 284</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D206" t="n">
-        <v>58.8</v>
+        <v>436.31</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Item 207</t>
+          <t>Item 285</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D207" t="n">
-        <v>459.95</v>
+        <v>441.93</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Item 208</t>
+          <t>Item 286</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D208" t="n">
-        <v>52.88</v>
+        <v>200.79</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Item 209</t>
+          <t>Item 287</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4181,52 +4181,52 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D209" t="n">
-        <v>266.93</v>
+        <v>85.92</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Item 210</t>
+          <t>Item 288</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D210" t="n">
-        <v>251.55</v>
+        <v>50.76</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Item 211</t>
+          <t>Item 289</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D211" t="n">
-        <v>481.31</v>
+        <v>66.70999999999999</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Item 212</t>
+          <t>Item 29</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4235,232 +4235,232 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="D212" t="n">
-        <v>450.23</v>
+        <v>377.75</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Item 213</t>
+          <t>Item 290</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D213" t="n">
-        <v>372.95</v>
+        <v>480.21</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Item 214</t>
+          <t>Item 291</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D214" t="n">
-        <v>463.67</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Item 215</t>
+          <t>Item 292</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D215" t="n">
-        <v>187.89</v>
+        <v>431.36</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Item 216</t>
+          <t>Item 293</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D216" t="n">
-        <v>195.05</v>
+        <v>81.38</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Item 217</t>
+          <t>Item 294</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D217" t="n">
-        <v>386.34</v>
+        <v>280.33</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Item 218</t>
+          <t>Item 295</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D218" t="n">
-        <v>85.02</v>
+        <v>155.22</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Item 219</t>
+          <t>Item 296</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D219" t="n">
-        <v>90.15000000000001</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Item 220</t>
+          <t>Item 297</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="D220" t="n">
-        <v>340.86</v>
+        <v>474.11</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Item 221</t>
+          <t>Item 298</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D221" t="n">
-        <v>16.15</v>
+        <v>325.33</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Item 222</t>
+          <t>Item 299</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D222" t="n">
-        <v>489.82</v>
+        <v>212.76</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Item 223</t>
+          <t>Item 3</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="D223" t="n">
-        <v>307.71</v>
+        <v>227.23</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Item 224</t>
+          <t>Item 30</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D224" t="n">
-        <v>309.9</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Item 225</t>
+          <t>Item 300</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4469,88 +4469,88 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D225" t="n">
-        <v>31.47</v>
+        <v>475.84</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Item 226</t>
+          <t>Item 301</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D226" t="n">
-        <v>403.79</v>
+        <v>151.55</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Item 227</t>
+          <t>Item 302</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D227" t="n">
-        <v>276.31</v>
+        <v>196.51</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Item 228</t>
+          <t>Item 303</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D228" t="n">
-        <v>33.45</v>
+        <v>275.81</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Item 229</t>
+          <t>Item 304</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D229" t="n">
-        <v>346.73</v>
+        <v>304.88</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Item 230</t>
+          <t>Item 305</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -4559,16 +4559,16 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D230" t="n">
-        <v>124.15</v>
+        <v>53.41</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Item 231</t>
+          <t>Item 306</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -4577,16 +4577,16 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D231" t="n">
-        <v>33.29</v>
+        <v>53.18</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Item 232</t>
+          <t>Item 307</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -4595,340 +4595,340 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D232" t="n">
-        <v>159.65</v>
+        <v>49.06</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Item 233</t>
+          <t>Item 308</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D233" t="n">
-        <v>166.27</v>
+        <v>120.62</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Item 234</t>
+          <t>Item 309</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D234" t="n">
-        <v>314.42</v>
+        <v>55.44</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Item 235</t>
+          <t>Item 31</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D235" t="n">
-        <v>431.3</v>
+        <v>263.37</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Item 236</t>
+          <t>Item 310</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D236" t="n">
-        <v>277.5</v>
+        <v>381.94</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Item 237</t>
+          <t>Item 311</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D237" t="n">
-        <v>309.07</v>
+        <v>131.24</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Item 238</t>
+          <t>Item 312</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D238" t="n">
-        <v>141.92</v>
+        <v>105.46</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Item 239</t>
+          <t>Item 313</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D239" t="n">
-        <v>132.37</v>
+        <v>55.35</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Item 240</t>
+          <t>Item 314</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="D240" t="n">
-        <v>9.550000000000001</v>
+        <v>405.31</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Item 241</t>
+          <t>Item 315</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D241" t="n">
-        <v>55.49</v>
+        <v>225.92</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Item 242</t>
+          <t>Item 316</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D242" t="n">
-        <v>123.2</v>
+        <v>109.77</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Item 243</t>
+          <t>Item 317</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D243" t="n">
-        <v>162.5</v>
+        <v>47.58</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Item 244</t>
+          <t>Item 318</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D244" t="n">
-        <v>204.33</v>
+        <v>274.64</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Item 245</t>
+          <t>Item 319</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="D245" t="n">
-        <v>334.96</v>
+        <v>372.25</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Item 246</t>
+          <t>Item 32</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D246" t="n">
-        <v>393.28</v>
+        <v>396</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Item 247</t>
+          <t>Item 320</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D247" t="n">
-        <v>40.54</v>
+        <v>157.58</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Item 248</t>
+          <t>Item 321</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D248" t="n">
-        <v>433.26</v>
+        <v>308.26</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Item 249</t>
+          <t>Item 322</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D249" t="n">
-        <v>160.88</v>
+        <v>164.69</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Item 250</t>
+          <t>Item 323</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D250" t="n">
-        <v>209.22</v>
+        <v>357.86</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Item 251</t>
+          <t>Item 324</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4937,70 +4937,70 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D251" t="n">
-        <v>156.68</v>
+        <v>104.26</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Item 252</t>
+          <t>Item 325</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D252" t="n">
-        <v>218.08</v>
+        <v>112.52</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Item 253</t>
+          <t>Item 326</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D253" t="n">
-        <v>416.56</v>
+        <v>289.64</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Item 254</t>
+          <t>Item 327</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D254" t="n">
-        <v>347.58</v>
+        <v>71.18000000000001</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Item 255</t>
+          <t>Item 328</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -5009,70 +5009,70 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D255" t="n">
-        <v>55.06</v>
+        <v>204.08</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Item 256</t>
+          <t>Item 329</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D256" t="n">
-        <v>41.85</v>
+        <v>93.31999999999999</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Item 257</t>
+          <t>Item 33</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D257" t="n">
-        <v>372.74</v>
+        <v>298.91</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Item 258</t>
+          <t>Item 330</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D258" t="n">
-        <v>386.29</v>
+        <v>290.23</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Item 259</t>
+          <t>Item 331</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -5081,34 +5081,34 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D259" t="n">
-        <v>457.26</v>
+        <v>139.41</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Item 260</t>
+          <t>Item 332</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D260" t="n">
-        <v>297.88</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Item 261</t>
+          <t>Item 333</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -5117,88 +5117,88 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D261" t="n">
-        <v>367.11</v>
+        <v>144.76</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Item 262</t>
+          <t>Item 334</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D262" t="n">
-        <v>270.73</v>
+        <v>233.92</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Item 263</t>
+          <t>Item 335</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D263" t="n">
-        <v>322.81</v>
+        <v>493.76</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Item 264</t>
+          <t>Item 336</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D264" t="n">
-        <v>163.27</v>
+        <v>251.85</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Item 265</t>
+          <t>Item 337</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D265" t="n">
-        <v>90.23</v>
+        <v>83.22</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Item 266</t>
+          <t>Item 338</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5207,34 +5207,34 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D266" t="n">
-        <v>220.76</v>
+        <v>225.35</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Item 267</t>
+          <t>Item 339</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D267" t="n">
-        <v>10.26</v>
+        <v>206.96</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Item 268</t>
+          <t>Item 34</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -5243,34 +5243,34 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D268" t="n">
-        <v>37.37</v>
+        <v>484.29</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Item 269</t>
+          <t>Item 340</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D269" t="n">
-        <v>240.92</v>
+        <v>194.84</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Item 270</t>
+          <t>Item 341</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5279,16 +5279,16 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D270" t="n">
-        <v>121.28</v>
+        <v>28.41</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Item 271</t>
+          <t>Item 342</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5297,70 +5297,70 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D271" t="n">
-        <v>93.19</v>
+        <v>34.34</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Item 272</t>
+          <t>Item 343</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D272" t="n">
-        <v>217.59</v>
+        <v>458.42</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Item 273</t>
+          <t>Item 344</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D273" t="n">
-        <v>140.08</v>
+        <v>52.01</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Item 274</t>
+          <t>Item 345</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D274" t="n">
-        <v>345.08</v>
+        <v>319.66</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Item 275</t>
+          <t>Item 346</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5369,70 +5369,70 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D275" t="n">
-        <v>433.58</v>
+        <v>236.83</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Item 276</t>
+          <t>Item 347</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D276" t="n">
-        <v>211.28</v>
+        <v>49.07</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Item 277</t>
+          <t>Item 348</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D277" t="n">
-        <v>178.08</v>
+        <v>411.4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Item 278</t>
+          <t>Item 349</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D278" t="n">
-        <v>196.98</v>
+        <v>428.88</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Item 279</t>
+          <t>Item 35</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -5441,70 +5441,70 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D279" t="n">
-        <v>339.04</v>
+        <v>414.41</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Item 280</t>
+          <t>Item 350</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D280" t="n">
-        <v>475.94</v>
+        <v>286.53</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Item 281</t>
+          <t>Item 351</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D281" t="n">
-        <v>87.86</v>
+        <v>323.39</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Item 282</t>
+          <t>Item 352</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="D282" t="n">
-        <v>125.84</v>
+        <v>322.18</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Item 283</t>
+          <t>Item 353</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -5513,124 +5513,124 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D283" t="n">
-        <v>176.62</v>
+        <v>385.45</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Item 284</t>
+          <t>Item 354</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D284" t="n">
-        <v>436.31</v>
+        <v>384.27</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Item 285</t>
+          <t>Item 355</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D285" t="n">
-        <v>441.93</v>
+        <v>308.55</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Item 286</t>
+          <t>Item 356</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D286" t="n">
-        <v>200.79</v>
+        <v>32.46</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Item 287</t>
+          <t>Item 357</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D287" t="n">
-        <v>85.92</v>
+        <v>189.27</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Item 288</t>
+          <t>Item 358</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D288" t="n">
-        <v>50.76</v>
+        <v>482.63</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Item 289</t>
+          <t>Item 359</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D289" t="n">
-        <v>66.70999999999999</v>
+        <v>132.15</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Item 290</t>
+          <t>Item 36</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -5639,88 +5639,88 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D290" t="n">
-        <v>480.21</v>
+        <v>470.25</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Item 291</t>
+          <t>Item 360</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D291" t="n">
-        <v>16.53</v>
+        <v>245.19</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Item 292</t>
+          <t>Item 361</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D292" t="n">
-        <v>431.36</v>
+        <v>337.14</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Item 293</t>
+          <t>Item 362</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D293" t="n">
-        <v>81.38</v>
+        <v>405.4</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Item 294</t>
+          <t>Item 363</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D294" t="n">
-        <v>280.33</v>
+        <v>310.52</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Item 295</t>
+          <t>Item 364</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -5729,376 +5729,376 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D295" t="n">
-        <v>155.22</v>
+        <v>330.48</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Item 296</t>
+          <t>Item 365</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D296" t="n">
-        <v>323.3</v>
+        <v>77.41</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Item 297</t>
+          <t>Item 366</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D297" t="n">
-        <v>474.11</v>
+        <v>266.4</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Item 298</t>
+          <t>Item 367</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D298" t="n">
-        <v>325.33</v>
+        <v>325.18</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Item 299</t>
+          <t>Item 368</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D299" t="n">
-        <v>212.76</v>
+        <v>64.04000000000001</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Item 300</t>
+          <t>Item 369</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="D300" t="n">
-        <v>475.84</v>
+        <v>147.35</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Item 301</t>
+          <t>Item 37</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D301" t="n">
-        <v>151.55</v>
+        <v>497.38</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Item 302</t>
+          <t>Item 370</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D302" t="n">
-        <v>196.51</v>
+        <v>445.4</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Item 303</t>
+          <t>Item 371</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D303" t="n">
-        <v>275.81</v>
+        <v>291.1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Item 304</t>
+          <t>Item 372</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D304" t="n">
-        <v>304.88</v>
+        <v>20.31</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Item 305</t>
+          <t>Item 373</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D305" t="n">
-        <v>53.41</v>
+        <v>154.48</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Item 306</t>
+          <t>Item 374</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D306" t="n">
-        <v>53.18</v>
+        <v>349.48</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Item 307</t>
+          <t>Item 375</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D307" t="n">
-        <v>49.06</v>
+        <v>412.16</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Item 308</t>
+          <t>Item 376</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D308" t="n">
-        <v>120.62</v>
+        <v>135.48</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Item 309</t>
+          <t>Item 377</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D309" t="n">
-        <v>55.44</v>
+        <v>465.69</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Item 310</t>
+          <t>Item 378</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D310" t="n">
-        <v>381.94</v>
+        <v>73.34</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Item 311</t>
+          <t>Item 379</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D311" t="n">
-        <v>131.24</v>
+        <v>130.33</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Item 312</t>
+          <t>Item 38</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D312" t="n">
-        <v>105.46</v>
+        <v>458.24</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Item 313</t>
+          <t>Item 380</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="D313" t="n">
-        <v>55.35</v>
+        <v>76.75</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Item 314</t>
+          <t>Item 381</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D314" t="n">
-        <v>405.31</v>
+        <v>427.97</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Item 315</t>
+          <t>Item 382</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D315" t="n">
-        <v>225.92</v>
+        <v>277.59</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Item 316</t>
+          <t>Item 383</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -6107,52 +6107,52 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D316" t="n">
-        <v>109.77</v>
+        <v>174.26</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Item 317</t>
+          <t>Item 384</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D317" t="n">
-        <v>47.58</v>
+        <v>252.31</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Item 318</t>
+          <t>Item 385</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D318" t="n">
-        <v>274.64</v>
+        <v>358.63</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Item 319</t>
+          <t>Item 386</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -6161,88 +6161,88 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="D319" t="n">
-        <v>372.25</v>
+        <v>242.77</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Item 320</t>
+          <t>Item 387</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D320" t="n">
-        <v>157.58</v>
+        <v>493.55</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Item 321</t>
+          <t>Item 388</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D321" t="n">
-        <v>308.26</v>
+        <v>330.55</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Item 322</t>
+          <t>Item 389</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>164.69</v>
+        <v>475.88</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Item 323</t>
+          <t>Item 39</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D323" t="n">
-        <v>357.86</v>
+        <v>83.18000000000001</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Item 324</t>
+          <t>Item 390</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -6251,70 +6251,70 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D324" t="n">
-        <v>104.26</v>
+        <v>85.33</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Item 325</t>
+          <t>Item 391</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D325" t="n">
-        <v>112.52</v>
+        <v>141.4</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Item 326</t>
+          <t>Item 392</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D326" t="n">
-        <v>289.64</v>
+        <v>296.94</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Item 327</t>
+          <t>Item 393</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D327" t="n">
-        <v>71.18000000000001</v>
+        <v>106.56</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Item 328</t>
+          <t>Item 394</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -6323,178 +6323,178 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D328" t="n">
-        <v>204.08</v>
+        <v>190.78</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Item 329</t>
+          <t>Item 395</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D329" t="n">
-        <v>93.31999999999999</v>
+        <v>28.16</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Item 330</t>
+          <t>Item 396</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D330" t="n">
-        <v>290.23</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Item 331</t>
+          <t>Item 397</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D331" t="n">
-        <v>139.41</v>
+        <v>379.77</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Item 332</t>
+          <t>Item 398</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D332" t="n">
-        <v>16.77</v>
+        <v>216.69</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Item 333</t>
+          <t>Item 399</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D333" t="n">
-        <v>144.76</v>
+        <v>237.29</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Item 334</t>
+          <t>Item 4</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D334" t="n">
-        <v>233.92</v>
+        <v>195.65</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Item 335</t>
+          <t>Item 40</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D335" t="n">
-        <v>493.76</v>
+        <v>26.93</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Item 336</t>
+          <t>Item 400</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C336" t="n">
         <v>72</v>
       </c>
       <c r="D336" t="n">
-        <v>251.85</v>
+        <v>315.03</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Item 337</t>
+          <t>Item 401</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D337" t="n">
-        <v>83.22</v>
+        <v>199</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Item 338</t>
+          <t>Item 41</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -6503,16 +6503,16 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D338" t="n">
-        <v>225.35</v>
+        <v>358.2</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Item 339</t>
+          <t>Item 42</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -6521,16 +6521,16 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D339" t="n">
-        <v>206.96</v>
+        <v>488.73</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Item 340</t>
+          <t>Item 43</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -6539,34 +6539,34 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D340" t="n">
-        <v>194.84</v>
+        <v>222.48</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Item 341</t>
+          <t>Item 44</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D341" t="n">
-        <v>28.41</v>
+        <v>330.86</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Item 342</t>
+          <t>Item 45</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -6575,376 +6575,376 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>34.34</v>
+        <v>306.41</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Item 343</t>
+          <t>Item 46</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D343" t="n">
-        <v>458.42</v>
+        <v>195.32</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Item 344</t>
+          <t>Item 47</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D344" t="n">
-        <v>52.01</v>
+        <v>213.79</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Item 345</t>
+          <t>Item 48</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D345" t="n">
-        <v>319.66</v>
+        <v>133.71</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Item 346</t>
+          <t>Item 49</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D346" t="n">
-        <v>236.83</v>
+        <v>382.9</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Item 347</t>
+          <t>Item 5</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D347" t="n">
-        <v>49.07</v>
+        <v>176.72</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Item 348</t>
+          <t>Item 50</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D348" t="n">
-        <v>411.4</v>
+        <v>431.66</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Item 349</t>
+          <t>Item 51</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D349" t="n">
-        <v>428.88</v>
+        <v>14.76</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Item 350</t>
+          <t>Item 52</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D350" t="n">
-        <v>286.53</v>
+        <v>369.3</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Item 351</t>
+          <t>Item 53</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D351" t="n">
-        <v>323.39</v>
+        <v>497.85</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Item 352</t>
+          <t>Item 54</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D352" t="n">
-        <v>322.18</v>
+        <v>417.72</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Item 353</t>
+          <t>Item 55</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D353" t="n">
-        <v>385.45</v>
+        <v>326.35</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Item 354</t>
+          <t>Item 56</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D354" t="n">
-        <v>384.27</v>
+        <v>493.32</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Item 355</t>
+          <t>Item 57</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D355" t="n">
-        <v>308.55</v>
+        <v>357.88</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Item 356</t>
+          <t>Item 58</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D356" t="n">
-        <v>32.46</v>
+        <v>296.12</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Item 357</t>
+          <t>Item 59</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D357" t="n">
-        <v>189.27</v>
+        <v>88.36</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Item 358</t>
+          <t>Item 6</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="D358" t="n">
-        <v>482.63</v>
+        <v>387.22</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Item 359</t>
+          <t>Item 60</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D359" t="n">
-        <v>132.15</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Item 360</t>
+          <t>Item 61</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D360" t="n">
-        <v>245.19</v>
+        <v>355.92</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Item 361</t>
+          <t>Item 62</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D361" t="n">
-        <v>337.14</v>
+        <v>251.01</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Item 362</t>
+          <t>Item 63</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D362" t="n">
-        <v>405.4</v>
+        <v>346.7</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Item 363</t>
+          <t>Item 64</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -6953,16 +6953,16 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D363" t="n">
-        <v>310.52</v>
+        <v>169.59</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Item 364</t>
+          <t>Item 65</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -6971,124 +6971,124 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D364" t="n">
-        <v>330.48</v>
+        <v>62.27</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Item 365</t>
+          <t>Item 66</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D365" t="n">
-        <v>77.41</v>
+        <v>408.17</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Item 366</t>
+          <t>Item 67</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D366" t="n">
-        <v>266.4</v>
+        <v>186.7</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Item 367</t>
+          <t>Item 68</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D367" t="n">
-        <v>325.18</v>
+        <v>316.31</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Item 368</t>
+          <t>Item 69</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D368" t="n">
-        <v>64.04000000000001</v>
+        <v>378.5</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Item 369</t>
+          <t>Item 7</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D369" t="n">
-        <v>147.35</v>
+        <v>457.71</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Item 370</t>
+          <t>Item 70</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D370" t="n">
-        <v>445.4</v>
+        <v>37.71</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Item 371</t>
+          <t>Item 71</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -7097,16 +7097,16 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D371" t="n">
-        <v>291.1</v>
+        <v>363.85</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Item 372</t>
+          <t>Item 72</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -7115,16 +7115,16 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D372" t="n">
-        <v>20.31</v>
+        <v>497.87</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Item 373</t>
+          <t>Item 73</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -7136,121 +7136,121 @@
         <v>19</v>
       </c>
       <c r="D373" t="n">
-        <v>154.48</v>
+        <v>275.33</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Item 374</t>
+          <t>Item 74</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D374" t="n">
-        <v>349.48</v>
+        <v>493.54</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Item 375</t>
+          <t>Item 75</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D375" t="n">
-        <v>412.16</v>
+        <v>215.34</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Item 376</t>
+          <t>Item 76</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D376" t="n">
-        <v>135.48</v>
+        <v>74.98</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Item 377</t>
+          <t>Item 77</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D377" t="n">
-        <v>465.69</v>
+        <v>213.97</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Item 378</t>
+          <t>Item 78</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D378" t="n">
-        <v>73.34</v>
+        <v>73.45</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Item 379</t>
+          <t>Item 79</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D379" t="n">
-        <v>130.33</v>
+        <v>250.74</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Item 380</t>
+          <t>Item 80</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -7259,124 +7259,124 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D380" t="n">
-        <v>76.75</v>
+        <v>41.99</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Item 381</t>
+          <t>Item 81</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D381" t="n">
-        <v>427.97</v>
+        <v>338.43</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Item 382</t>
+          <t>Item 82</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D382" t="n">
-        <v>277.59</v>
+        <v>249.35</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Item 383</t>
+          <t>Item 83</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Toys</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D383" t="n">
-        <v>174.26</v>
+        <v>404.78</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Item 384</t>
+          <t>Item 84</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D384" t="n">
-        <v>252.31</v>
+        <v>282.05</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Item 385</t>
+          <t>Item 85</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D385" t="n">
-        <v>358.63</v>
+        <v>172.03</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Item 386</t>
+          <t>Item 86</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D386" t="n">
-        <v>242.77</v>
+        <v>373.65</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Item 387</t>
+          <t>Item 87</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -7385,70 +7385,70 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D387" t="n">
-        <v>493.55</v>
+        <v>393.71</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Item 388</t>
+          <t>Item 88</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D388" t="n">
-        <v>330.55</v>
+        <v>424.95</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Item 389</t>
+          <t>Item 89</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Toys</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D389" t="n">
-        <v>475.88</v>
+        <v>359.94</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Item 390</t>
+          <t>Item 9</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D390" t="n">
-        <v>85.33</v>
+        <v>241</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Item 391</t>
+          <t>Item 90</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -7457,34 +7457,34 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D391" t="n">
-        <v>141.4</v>
+        <v>291.19</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Item 392</t>
+          <t>Item 91</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D392" t="n">
-        <v>296.94</v>
+        <v>473.84</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Item 393</t>
+          <t>Item 92</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -7493,52 +7493,52 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D393" t="n">
-        <v>106.56</v>
+        <v>76.22</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Item 394</t>
+          <t>Item 93</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D394" t="n">
-        <v>190.78</v>
+        <v>427.69</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Item 395</t>
+          <t>Item 94</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D395" t="n">
-        <v>28.16</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Item 396</t>
+          <t>Item 95</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -7547,34 +7547,34 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D396" t="n">
-        <v>16.9</v>
+        <v>187.74</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Item 397</t>
+          <t>Item 96</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D397" t="n">
-        <v>379.77</v>
+        <v>460.46</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Item 398</t>
+          <t>Item 97</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -7583,16 +7583,16 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D398" t="n">
-        <v>216.69</v>
+        <v>495.38</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Item 399</t>
+          <t>Item 98</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -7601,28 +7601,28 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D399" t="n">
-        <v>237.29</v>
+        <v>432.84</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Item 400</t>
+          <t>Item 99</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D400" t="n">
-        <v>315.03</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="401">
@@ -7677,24 +7677,6 @@
       </c>
       <c r="D403" t="n">
         <v>42</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>Item 401</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>Electronics</t>
-        </is>
-      </c>
-      <c r="C404" t="n">
-        <v>69</v>
-      </c>
-      <c r="D404" t="n">
-        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/testdata400.xlsx
+++ b/data/testdata400.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D403"/>
+  <dimension ref="A1:D404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7679,6 +7679,24 @@
         <v>42</v>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Toode</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Parimad tooted</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>123</v>
+      </c>
+      <c r="D404" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
